--- a/기획/요구사항 명세서.xlsx
+++ b/기획/요구사항 명세서.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="프런트" sheetId="1" r:id="rId1"/>
-    <sheet name="백엔드" sheetId="2" r:id="rId2"/>
+    <sheet name="IOT 요구사항 명세서" sheetId="2" r:id="rId1"/>
+    <sheet name="API 명세서" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,71 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
-  <si>
-    <t>페이지 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부항목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코멘트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QR 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QR 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시리얼 번호를 라우터에 추가해야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 사이트 이동용 QR이미지 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 상태 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PW 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭시 회원가입 페이지로 라우팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t>요구사항명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,6 +329,26 @@
   </si>
   <si>
     <t>IOT 요구사항 명세서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API 명세서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>first route</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>second route</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -529,19 +485,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -899,152 +842,149 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1327,638 +1267,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F28"/>
+  <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="2"/>
-    <col min="2" max="2" width="12.19921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.09765625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="B5" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B6" s="18"/>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="3"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="2:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C10"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="8.796875" style="2"/>
-    <col min="2" max="2" width="12.19921875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.8984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="51.3984375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.69921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.09765625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="12.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.09765625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B1" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" s="43"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B5" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="41"/>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="41"/>
+      <c r="C7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="41"/>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="43"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="41"/>
+      <c r="C10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="42"/>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="41"/>
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B5" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="22"/>
-      <c r="C6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="25" t="s">
+      <c r="E15" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="22"/>
-      <c r="C7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="F15" s="10"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="41"/>
+      <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="22"/>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B9" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B10" s="22"/>
-      <c r="C10" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28"/>
-      <c r="C11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="D16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="2:7" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="41"/>
+      <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="30" t="s">
+      <c r="D17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="F17" s="5"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B18" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="32" t="s">
+      <c r="C18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="2:7" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="42"/>
+      <c r="C19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="26" t="s">
+      <c r="D19" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="E19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="22"/>
-      <c r="C15" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="22"/>
-      <c r="C16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="C20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="2:7" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="22"/>
-      <c r="C17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="34"/>
-    </row>
-    <row r="18" spans="2:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B18" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="2:7" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="28"/>
-      <c r="C19" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="37"/>
+      <c r="F20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="38"/>
-      <c r="C21" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G21" s="27"/>
+      <c r="C21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="38"/>
-      <c r="C22" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="27"/>
+      <c r="C22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="2:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="39"/>
-      <c r="C23" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="29"/>
+      <c r="C23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="37"/>
+      <c r="B24" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="22"/>
-      <c r="C25" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="27"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="22"/>
-      <c r="C26" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="27"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="2:7" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="28"/>
-      <c r="C27" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="29"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1975,4 +1678,394 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="3" width="12.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.69921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.09765625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="3" spans="2:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
+    </row>
+    <row r="4" spans="2:8" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B5" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="43"/>
+    </row>
+    <row r="8" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="43"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="43"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="2:8" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="2:8" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B1:H3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>